--- a/Reports/Lobewise Comparisons/ResultsFinal/tib.xlsx
+++ b/Reports/Lobewise Comparisons/ResultsFinal/tib.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3c2d16a148962151/Desktop/BIOSTAT/Thesis/Thesis/Reports/Lobewise Comparisons/ResultsFinal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="284" documentId="11_F25DC773A252ABDACC1048CA799F592E5BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3332516-AA14-47A6-BAA2-9B86A61A27E6}"/>
+  <xr:revisionPtr revIDLastSave="332" documentId="11_F25DC773A252ABDACC1048CA799F592E5BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A97EDEA-37E2-459E-9EE2-C93E929F1052}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="25">
   <si>
     <t>Comparison</t>
   </si>
@@ -78,84 +78,6 @@
     <t>RUL vs LLS</t>
   </si>
   <si>
-    <t>LLL 1|2 vs LUS 1|2</t>
-  </si>
-  <si>
-    <t>LLS 1|2 vs LUS 1|2</t>
-  </si>
-  <si>
-    <t>LLL 0|1 vs LUS 0|1</t>
-  </si>
-  <si>
-    <t>RLL 1|2 vs RUL 1|2</t>
-  </si>
-  <si>
-    <t>LLS 0|1 vs LUS 0|1</t>
-  </si>
-  <si>
-    <t>RLL 0|1 vs RML 0|1</t>
-  </si>
-  <si>
-    <t>RLL 0|1 vs RUL 0|1</t>
-  </si>
-  <si>
-    <t>LLL 0|1 vs LLS 0|1</t>
-  </si>
-  <si>
-    <t>LLL 0|1 vs RML 0|1</t>
-  </si>
-  <si>
-    <t>LLL 0|1 vs RUL 0|1</t>
-  </si>
-  <si>
-    <t>LLL 1|2 vs RUL 1|2</t>
-  </si>
-  <si>
-    <t>RLL 1|2 vs RML 1|2</t>
-  </si>
-  <si>
-    <t>LLL 1|2 vs LLS 1|2</t>
-  </si>
-  <si>
-    <t>LLL 1|2 vs RML 1|2</t>
-  </si>
-  <si>
-    <t>RML 1|2 vs RUL 1|2</t>
-  </si>
-  <si>
-    <t>LLS 1|2 vs RUL 1|2</t>
-  </si>
-  <si>
-    <t>LLL 2|3 vs LUS 2|3</t>
-  </si>
-  <si>
-    <t>LLL 2|3 vs RUL 2|3</t>
-  </si>
-  <si>
-    <t>RLL 2|3 vs RUL 2|3</t>
-  </si>
-  <si>
-    <t>LLL 2|3 vs LLS 2|3</t>
-  </si>
-  <si>
-    <t>LLL 2|3 vs RML 2|3</t>
-  </si>
-  <si>
-    <t>LLS 2|3 vs LUS 2|3</t>
-  </si>
-  <si>
-    <t>RLL 2|3 vs RML 2|3</t>
-  </si>
-  <si>
-    <t>RML 2|3 vs RUL 2|3</t>
-  </si>
-  <si>
-    <t>LLS 2|3 vs RUL 2|3</t>
-  </si>
-  <si>
-    <t>LLL 2|3 vs RLL 2|3</t>
-  </si>
-  <si>
     <t>FDR_p</t>
   </si>
   <si>
@@ -186,61 +108,13 @@
     <t>RML vs RUL</t>
   </si>
   <si>
-    <t>RLL 0|1 vs LUS 0|1</t>
+    <t>LLS vs RUL</t>
   </si>
   <si>
-    <t>RUL 0|1 vs LUS 0|1</t>
+    <t>LLL vs RLL</t>
   </si>
   <si>
-    <t>RML 0|1 vs LUS 0|1</t>
-  </si>
-  <si>
-    <t>RLL 0|1 vs LLS 0|1</t>
-  </si>
-  <si>
-    <t>RLL 0|1 vs LLL 0|1</t>
-  </si>
-  <si>
-    <t>RUL 0|1 vs LLS 0|1</t>
-  </si>
-  <si>
-    <t>RML 0|1 vs LLS 0|1</t>
-  </si>
-  <si>
-    <t>RUL 0|1 vs RML 0|1</t>
-  </si>
-  <si>
-    <t>RLL 1|2 vs LUS 1|2</t>
-  </si>
-  <si>
-    <t>RML 1|2 vs LUS 1|2</t>
-  </si>
-  <si>
-    <t>RUL 1|2 vs LUS 1|2</t>
-  </si>
-  <si>
-    <t>RLL 1|2 vs LLS 1|2</t>
-  </si>
-  <si>
-    <t>RLL 1|2 vs LLL 1|2</t>
-  </si>
-  <si>
-    <t>RML 1|2 vs LLS 1|2</t>
-  </si>
-  <si>
-    <t>RLL 2|3 vs LUS 2|3</t>
-  </si>
-  <si>
-    <t>RML 2|3 vs LUS 2|3</t>
-  </si>
-  <si>
-    <t>RLL 2|3 vs LLS 2|3</t>
-  </si>
-  <si>
-    <t>RUL 2|3 vs LUS 2|3</t>
-  </si>
-  <si>
-    <t>RML 2|3 vs LLS 2|3</t>
+    <t>RUL vs RML</t>
   </si>
 </sst>
 </file>
@@ -276,9 +150,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -294,6 +167,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -562,7 +439,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -590,14 +467,14 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
@@ -620,8 +497,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1" t="s">
-        <v>40</v>
+      <c r="A3" t="s">
+        <v>14</v>
       </c>
       <c r="B3">
         <f>1/0.2049</f>
@@ -646,7 +523,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4">
@@ -669,7 +546,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5">
@@ -692,8 +569,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1" t="s">
-        <v>41</v>
+      <c r="A6" t="s">
+        <v>15</v>
       </c>
       <c r="B6">
         <f>1/0.33855</f>
@@ -718,7 +595,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
@@ -741,8 +618,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="1" t="s">
-        <v>42</v>
+      <c r="A8" t="s">
+        <v>16</v>
       </c>
       <c r="B8">
         <f>1/0.46529</f>
@@ -767,8 +644,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="1" t="s">
-        <v>43</v>
+      <c r="A9" t="s">
+        <v>17</v>
       </c>
       <c r="B9">
         <f>1/0.5407</f>
@@ -793,8 +670,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="1" t="s">
-        <v>44</v>
+      <c r="A10" t="s">
+        <v>18</v>
       </c>
       <c r="B10">
         <f>1/0.60524</f>
@@ -819,8 +696,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="1" t="s">
-        <v>45</v>
+      <c r="A11" t="s">
+        <v>19</v>
       </c>
       <c r="B11">
         <f>1/0.62363</f>
@@ -845,8 +722,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="1" t="s">
-        <v>46</v>
+      <c r="A12" t="s">
+        <v>20</v>
       </c>
       <c r="B12">
         <f>1/0.72471</f>
@@ -871,7 +748,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13">
@@ -894,7 +771,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="B14">
@@ -917,8 +794,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="1" t="s">
-        <v>47</v>
+      <c r="A15" t="s">
+        <v>21</v>
       </c>
       <c r="B15">
         <f>1/0.86053</f>
@@ -943,7 +820,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>11</v>
       </c>
       <c r="B16">
@@ -975,10 +852,16 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="10.20703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.68359375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
@@ -997,14 +880,14 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
@@ -1027,8 +910,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1" t="s">
-        <v>40</v>
+      <c r="A3" t="s">
+        <v>14</v>
       </c>
       <c r="B3">
         <f>1/0.20895</f>
@@ -1053,7 +936,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4">
@@ -1076,7 +959,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5">
@@ -1099,8 +982,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1" t="s">
-        <v>41</v>
+      <c r="A6" t="s">
+        <v>15</v>
       </c>
       <c r="B6">
         <f>1/0.34343</f>
@@ -1125,7 +1008,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
@@ -1148,8 +1031,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="1" t="s">
-        <v>42</v>
+      <c r="A8" t="s">
+        <v>16</v>
       </c>
       <c r="B8">
         <f>1/0.46954</f>
@@ -1174,8 +1057,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="1" t="s">
-        <v>43</v>
+      <c r="A9" t="s">
+        <v>17</v>
       </c>
       <c r="B9">
         <f>1/0.54517</f>
@@ -1200,8 +1083,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="1" t="s">
-        <v>44</v>
+      <c r="A10" t="s">
+        <v>18</v>
       </c>
       <c r="B10">
         <f>1/0.60841</f>
@@ -1226,8 +1109,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="1" t="s">
-        <v>45</v>
+      <c r="A11" t="s">
+        <v>19</v>
       </c>
       <c r="B11">
         <f>1/0.62729</f>
@@ -1252,8 +1135,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="1" t="s">
-        <v>46</v>
+      <c r="A12" t="s">
+        <v>20</v>
       </c>
       <c r="B12">
         <f>1/0.72833</f>
@@ -1278,7 +1161,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13">
@@ -1301,7 +1184,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="B14">
@@ -1324,8 +1207,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="1" t="s">
-        <v>47</v>
+      <c r="A15" t="s">
+        <v>21</v>
       </c>
       <c r="B15">
         <f>1/0.86127</f>
@@ -1350,7 +1233,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>11</v>
       </c>
       <c r="B16">
@@ -1382,12 +1265,12 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.41796875" customWidth="1"/>
+    <col min="1" max="1" width="17.68359375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1407,15 +1290,15 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1" t="s">
-        <v>48</v>
+      <c r="A2" t="s">
+        <v>5</v>
       </c>
       <c r="B2">
         <f>1/0.230628199632427</f>
@@ -1440,7 +1323,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3">
@@ -1463,8 +1346,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1" t="s">
-        <v>49</v>
+      <c r="A4" t="s">
+        <v>7</v>
       </c>
       <c r="B4">
         <f>1/0.359473558368411</f>
@@ -1489,8 +1372,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1" t="s">
-        <v>50</v>
+      <c r="A5" t="s">
+        <v>6</v>
       </c>
       <c r="B5">
         <f>1/0.386821252704903</f>
@@ -1515,8 +1398,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
+      <c r="A6" t="s">
+        <v>15</v>
       </c>
       <c r="B6">
         <v>2.1610508437955418</v>
@@ -1538,8 +1421,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="1" t="s">
-        <v>51</v>
+      <c r="A7" t="s">
+        <v>8</v>
       </c>
       <c r="B7">
         <f>1/0.498399265418703</f>
@@ -1564,7 +1447,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>17</v>
       </c>
       <c r="B8">
@@ -1587,8 +1470,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
+      <c r="A9" t="s">
+        <v>16</v>
       </c>
       <c r="B9">
         <v>1.558671311406572</v>
@@ -1610,8 +1493,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="1" t="s">
-        <v>52</v>
+      <c r="A10" t="s">
+        <v>9</v>
       </c>
       <c r="B10">
         <f>1/0.66312495110155</f>
@@ -1636,8 +1519,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
+      <c r="A11" t="s">
+        <v>18</v>
       </c>
       <c r="B11">
         <v>1.330509487297221</v>
@@ -1659,8 +1542,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="1" t="s">
-        <v>53</v>
+      <c r="A12" t="s">
+        <v>11</v>
       </c>
       <c r="B12">
         <f>1/0.776840636634242</f>
@@ -1685,8 +1568,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="1" t="s">
-        <v>54</v>
+      <c r="A13" t="s">
+        <v>10</v>
       </c>
       <c r="B13">
         <f>1/0.835940394555979</f>
@@ -1711,7 +1594,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14">
@@ -1734,8 +1617,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="1" t="s">
-        <v>55</v>
+      <c r="A15" t="s">
+        <v>24</v>
       </c>
       <c r="B15">
         <f>1/0.929301468972403</f>
@@ -1760,8 +1643,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
+      <c r="A16" t="s">
+        <v>19</v>
       </c>
       <c r="B16">
         <v>1.0335938371598721</v>
@@ -1792,7 +1675,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1817,15 +1700,15 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1" t="s">
-        <v>56</v>
+      <c r="A2" t="s">
+        <v>5</v>
       </c>
       <c r="B2">
         <f>1/0.0632691278305409</f>
@@ -1850,8 +1733,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
+      <c r="A3" t="s">
+        <v>14</v>
       </c>
       <c r="B3">
         <v>12.254462182569879</v>
@@ -1873,8 +1756,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1" t="s">
-        <v>57</v>
+      <c r="A4" t="s">
+        <v>6</v>
       </c>
       <c r="B4">
         <f>1/0.117589017031856</f>
@@ -1899,8 +1782,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
+      <c r="A5" t="s">
+        <v>15</v>
       </c>
       <c r="B5">
         <v>7.0297449656931672</v>
@@ -1922,8 +1805,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1" t="s">
-        <v>58</v>
+      <c r="A6" t="s">
+        <v>7</v>
       </c>
       <c r="B6">
         <f>1/0.167105488537831</f>
@@ -1948,8 +1831,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
+      <c r="A7" t="s">
+        <v>16</v>
       </c>
       <c r="B7">
         <v>2.6411852710440962</v>
@@ -1971,8 +1854,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="1" t="s">
-        <v>59</v>
+      <c r="A8" t="s">
+        <v>8</v>
       </c>
       <c r="B8">
         <f>1/0.444765832850543</f>
@@ -1997,8 +1880,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="1" t="s">
-        <v>22</v>
+      <c r="A9" t="s">
+        <v>19</v>
       </c>
       <c r="B9">
         <v>2.0477878897867119</v>
@@ -2020,8 +1903,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="1" t="s">
-        <v>23</v>
+      <c r="A10" t="s">
+        <v>17</v>
       </c>
       <c r="B10">
         <v>1.858552837124684</v>
@@ -2043,8 +1926,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="1" t="s">
-        <v>24</v>
+      <c r="A11" t="s">
+        <v>18</v>
       </c>
       <c r="B11">
         <v>1.7432299809416389</v>
@@ -2066,8 +1949,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="1" t="s">
-        <v>25</v>
+      <c r="A12" t="s">
+        <v>20</v>
       </c>
       <c r="B12">
         <v>1.440990162302447</v>
@@ -2089,8 +1972,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="1" t="s">
-        <v>26</v>
+      <c r="A13" t="s">
+        <v>21</v>
       </c>
       <c r="B13">
         <v>1.4210977585819951</v>
@@ -2112,8 +1995,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="1" t="s">
-        <v>60</v>
+      <c r="A14" t="s">
+        <v>9</v>
       </c>
       <c r="B14">
         <f>1/0.775329134323543</f>
@@ -2138,8 +2021,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="1" t="s">
-        <v>61</v>
+      <c r="A15" t="s">
+        <v>10</v>
       </c>
       <c r="B15">
         <f>1/0.826620800500499</f>
@@ -2165,7 +2048,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>1.1747089667885131</v>
@@ -2196,12 +2079,12 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.62890625" customWidth="1"/>
+    <col min="1" max="1" width="10.20703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2221,15 +2104,15 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1" t="s">
-        <v>28</v>
+      <c r="A2" t="s">
+        <v>14</v>
       </c>
       <c r="B2">
         <v>11.961628693996429</v>
@@ -2251,8 +2134,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1" t="s">
-        <v>62</v>
+      <c r="A3" t="s">
+        <v>5</v>
       </c>
       <c r="B3">
         <f>1/0.10138277673112</f>
@@ -2277,8 +2160,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1" t="s">
-        <v>29</v>
+      <c r="A4" t="s">
+        <v>19</v>
       </c>
       <c r="B4">
         <v>5.3999410804503292</v>
@@ -2300,8 +2183,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1" t="s">
-        <v>30</v>
+      <c r="A5" t="s">
+        <v>16</v>
       </c>
       <c r="B5">
         <v>4.4528136700695136</v>
@@ -2323,8 +2206,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1" t="s">
-        <v>31</v>
+      <c r="A6" t="s">
+        <v>18</v>
       </c>
       <c r="B6">
         <v>2.97544617685922</v>
@@ -2346,8 +2229,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="1" t="s">
-        <v>32</v>
+      <c r="A7" t="s">
+        <v>20</v>
       </c>
       <c r="B7">
         <v>2.7129591390474901</v>
@@ -2369,8 +2252,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="1" t="s">
-        <v>63</v>
+      <c r="A8" t="s">
+        <v>6</v>
       </c>
       <c r="B8">
         <f>1/0.226805162444904</f>
@@ -2395,8 +2278,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="1" t="s">
-        <v>64</v>
+      <c r="A9" t="s">
+        <v>8</v>
       </c>
       <c r="B9">
         <f>1/0.407570179106412</f>
@@ -2421,8 +2304,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="1" t="s">
-        <v>33</v>
+      <c r="A10" t="s">
+        <v>15</v>
       </c>
       <c r="B10">
         <v>4.0201126093373736</v>
@@ -2444,8 +2327,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="1" t="s">
-        <v>34</v>
+      <c r="A11" t="s">
+        <v>17</v>
       </c>
       <c r="B11">
         <v>2.2371172871544069</v>
@@ -2467,8 +2350,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="1" t="s">
-        <v>35</v>
+      <c r="A12" t="s">
+        <v>21</v>
       </c>
       <c r="B12">
         <v>1.990424773720046</v>
@@ -2490,8 +2373,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="1" t="s">
-        <v>65</v>
+      <c r="A13" t="s">
+        <v>7</v>
       </c>
       <c r="B13">
         <f>1/0.451438614137937</f>
@@ -2516,8 +2399,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="1" t="s">
-        <v>36</v>
+      <c r="A14" t="s">
+        <v>22</v>
       </c>
       <c r="B14">
         <v>1.8148340650377099</v>
@@ -2539,8 +2422,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="1" t="s">
-        <v>37</v>
+      <c r="A15" t="s">
+        <v>23</v>
       </c>
       <c r="B15">
         <v>1.212703131224</v>
@@ -2562,8 +2445,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="1" t="s">
-        <v>66</v>
+      <c r="A16" t="s">
+        <v>10</v>
       </c>
       <c r="B16">
         <f>1/0.911782293407572</f>
